--- a/He_Results.xlsx
+++ b/He_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasanm\Documents\GitHub\m-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8885D6-F3CD-4999-8E00-27C5894F4BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B6DD1-6379-491F-8915-FB55C8BCF5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="1305" windowWidth="21585" windowHeight="11835" activeTab="1" xr2:uid="{C755CF13-FDC1-4603-85E1-D68338F2B6CC}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+      <selection activeCell="P8" sqref="O8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,7 +2776,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,6 +3035,12 @@
       <c r="P5">
         <v>112.07</v>
       </c>
+      <c r="Q5">
+        <v>112.07</v>
+      </c>
+      <c r="R5">
+        <v>112.07</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3085,6 +3091,12 @@
       <c r="P6">
         <v>8578.51</v>
       </c>
+      <c r="Q6">
+        <v>8509.16</v>
+      </c>
+      <c r="R6">
+        <v>8509.16</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3134,6 +3146,12 @@
       </c>
       <c r="P7">
         <v>6774.24</v>
+      </c>
+      <c r="Q7">
+        <v>6824.65</v>
+      </c>
+      <c r="R7">
+        <v>6824.65</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">

--- a/He_Results.xlsx
+++ b/He_Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasanm\Documents\GitHub\m-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B6DD1-6379-491F-8915-FB55C8BCF5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A255D84-8C42-4B9F-A294-FBD8AFAC4624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1305" windowWidth="21585" windowHeight="11835" activeTab="1" xr2:uid="{C755CF13-FDC1-4603-85E1-D68338F2B6CC}"/>
+    <workbookView xWindow="2055" yWindow="1575" windowWidth="21585" windowHeight="11835" activeTab="1" xr2:uid="{C755CF13-FDC1-4603-85E1-D68338F2B6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="65">
   <si>
     <t>mtsp51–3</t>
   </si>
@@ -229,16 +230,25 @@
   </si>
   <si>
     <t>HGA-4/17/2023</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,12 +327,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC93106-274A-4481-82E5-5181033E42CB}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="O8:P8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,24 +674,24 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="7"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -689,34 +700,34 @@
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2773,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF052698-AE4B-4A52-A1BC-BC5F61C91264}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,38 +2796,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="8"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2923,10 +2934,10 @@
       <c r="P3">
         <v>159.99</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="5">
         <v>159.57</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="5">
         <v>159.57</v>
       </c>
     </row>
@@ -2979,10 +2990,10 @@
       <c r="P4">
         <v>118.13</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <v>118.54</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="5">
         <v>118.94</v>
       </c>
     </row>
@@ -3035,10 +3046,10 @@
       <c r="P5">
         <v>112.07</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <v>112.07</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="5">
         <v>112.07</v>
       </c>
     </row>
@@ -3091,10 +3102,10 @@
       <c r="P6">
         <v>8578.51</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="5">
         <v>8509.16</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="5">
         <v>8509.16</v>
       </c>
     </row>
@@ -3147,10 +3158,10 @@
       <c r="P7">
         <v>6774.24</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <v>6824.65</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="5">
         <v>6824.65</v>
       </c>
     </row>
@@ -3203,6 +3214,12 @@
       <c r="P8">
         <v>6358.49</v>
       </c>
+      <c r="Q8" s="5">
+        <v>6358.49</v>
+      </c>
+      <c r="R8" s="5">
+        <v>6358.49</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3253,6 +3270,12 @@
       <c r="P9">
         <v>6358.49</v>
       </c>
+      <c r="Q9" s="5">
+        <v>6358.49</v>
+      </c>
+      <c r="R9" s="5">
+        <v>6358.49</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3303,6 +3326,12 @@
       <c r="P10">
         <v>13352.37</v>
       </c>
+      <c r="Q10" s="5">
+        <v>13131.64</v>
+      </c>
+      <c r="R10" s="5">
+        <v>13194.86</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3353,6 +3382,12 @@
       <c r="P11">
         <v>8602.15</v>
       </c>
+      <c r="Q11" s="5">
+        <v>8553.66</v>
+      </c>
+      <c r="R11" s="5">
+        <v>8649.7099999999991</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3403,6 +3438,12 @@
       <c r="P12">
         <v>5668.59</v>
       </c>
+      <c r="Q12" s="5">
+        <v>5600.32</v>
+      </c>
+      <c r="R12" s="5">
+        <v>5791.18</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3453,6 +3494,12 @@
       <c r="P13">
         <v>5246.49</v>
       </c>
+      <c r="Q13" s="5">
+        <v>5246.49</v>
+      </c>
+      <c r="R13" s="5">
+        <v>5246.49</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3503,6 +3550,12 @@
       <c r="P14">
         <v>5246.49</v>
       </c>
+      <c r="Q14" s="5">
+        <v>5246.49</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5246.49</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3553,6 +3606,12 @@
       <c r="P15">
         <v>2449.65</v>
       </c>
+      <c r="Q15" s="5">
+        <v>2419.8200000000002</v>
+      </c>
+      <c r="R15" s="5">
+        <v>2432.09</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3603,8 +3662,14 @@
       <c r="P16">
         <v>1755.13</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="5">
+        <v>1744.26</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1760.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3653,8 +3718,14 @@
       <c r="P17">
         <v>1554.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>1554.64</v>
+      </c>
+      <c r="R17">
+        <v>1555.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3703,8 +3774,14 @@
       <c r="P18">
         <v>1554.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>1554.64</v>
+      </c>
+      <c r="R18">
+        <v>1554.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3741,11 +3818,11 @@
       <c r="L19" t="s">
         <v>8</v>
       </c>
-      <c r="M19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" t="s">
-        <v>8</v>
+      <c r="M19">
+        <v>1554.64</v>
+      </c>
+      <c r="N19">
+        <v>1554.64</v>
       </c>
       <c r="O19">
         <v>1554.64</v>
@@ -3753,8 +3830,14 @@
       <c r="P19">
         <v>1554.64</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>1554.64</v>
+      </c>
+      <c r="R19">
+        <v>1554.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3803,8 +3886,14 @@
       <c r="P20">
         <v>11169.82</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>10740.82</v>
+      </c>
+      <c r="R20">
+        <v>10923.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3853,8 +3942,14 @@
       <c r="P21">
         <v>7575.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>7515.52</v>
+      </c>
+      <c r="R21">
+        <v>7609.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3903,8 +3998,14 @@
       <c r="P22">
         <v>6223.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>6223.22</v>
+      </c>
+      <c r="R22">
+        <v>6246.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3953,8 +4054,14 @@
       <c r="P23">
         <v>6223.22</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>6223.22</v>
+      </c>
+      <c r="R23">
+        <v>6223.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4003,8 +4110,14 @@
       <c r="P24">
         <v>16482</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>15963.82</v>
+      </c>
+      <c r="R24">
+        <v>16184.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -4053,8 +4166,14 @@
       <c r="P25">
         <v>11851.87</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>11612.45</v>
+      </c>
+      <c r="R25">
+        <v>11848.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -4103,8 +4222,14 @@
       <c r="P26">
         <v>9731.17</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>9731.17</v>
+      </c>
+      <c r="R26">
+        <v>9824.3799999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4153,8 +4278,14 @@
       <c r="P27">
         <v>9731.17</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>9731.17</v>
+      </c>
+      <c r="R27">
+        <v>9731.17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4203,8 +4334,14 @@
       <c r="P28">
         <v>3333.55</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>3198.28</v>
+      </c>
+      <c r="R28">
+        <v>3298.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4253,8 +4390,14 @@
       <c r="P29">
         <v>2115.41</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>2179.0700000000002</v>
+      </c>
+      <c r="R29">
+        <v>2226.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4303,8 +4446,14 @@
       <c r="P30">
         <v>1386.26</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>1469.23</v>
+      </c>
+      <c r="R30">
+        <v>1541.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4353,8 +4502,14 @@
       <c r="P31">
         <v>1231.69</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>1255.24</v>
+      </c>
+      <c r="R31">
+        <v>1270.29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4403,8 +4558,14 @@
       <c r="P32">
         <v>21928.16</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>20983.55</v>
+      </c>
+      <c r="R32">
+        <v>21532.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4453,8 +4614,14 @@
       <c r="P33">
         <v>13743.67</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>14051.97</v>
+      </c>
+      <c r="R33">
+        <v>14214.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4503,8 +4670,14 @@
       <c r="P34">
         <v>8367.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>8931.75</v>
+      </c>
+      <c r="R34">
+        <v>8971.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4552,6 +4725,45 @@
       </c>
       <c r="P35">
         <v>6540.13</v>
+      </c>
+      <c r="Q35">
+        <v>6834.63</v>
+      </c>
+      <c r="R35">
+        <v>6835.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(B3:B35)</f>
+        <v>6411.5890909090931</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36:R36" si="0">AVERAGE(M3:M35)</f>
+        <v>6439.019696969699</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>6518.3636363636379</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>6365.5209090909093</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>6456.9451515151532</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>6414.9296969696989</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>6482.1293939393936</v>
       </c>
     </row>
   </sheetData>
@@ -4566,5 +4778,6 @@
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/He_Results.xlsx
+++ b/He_Results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasanm\Documents\GitHub\m-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A255D84-8C42-4B9F-A294-FBD8AFAC4624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD216CDF-25D7-4E97-9A3D-9B63C1B81760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1575" windowWidth="21585" windowHeight="11835" activeTab="1" xr2:uid="{C755CF13-FDC1-4603-85E1-D68338F2B6CC}"/>
+    <workbookView xWindow="3690" yWindow="1740" windowWidth="21585" windowHeight="11835" activeTab="1" xr2:uid="{C755CF13-FDC1-4603-85E1-D68338F2B6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="61">
   <si>
     <t>mtsp51–3</t>
   </si>
@@ -61,21 +62,9 @@
     <t>mtsp100–20</t>
   </si>
   <si>
-    <t>rand100–3</t>
-  </si>
-  <si>
     <t>–</t>
   </si>
   <si>
-    <t>rand100–5</t>
-  </si>
-  <si>
-    <t>rand100–10</t>
-  </si>
-  <si>
-    <t>rand100–20</t>
-  </si>
-  <si>
     <t>mtsp150–3</t>
   </si>
   <si>
@@ -130,18 +119,6 @@
     <t>lin318–20</t>
   </si>
   <si>
-    <t>att532–3</t>
-  </si>
-  <si>
-    <t>att532–5</t>
-  </si>
-  <si>
-    <t>att532–10</t>
-  </si>
-  <si>
-    <t>att532–20</t>
-  </si>
-  <si>
     <t>rat783–3</t>
   </si>
   <si>
@@ -172,39 +149,9 @@
     <t>BKS</t>
   </si>
   <si>
-    <t>re-ABC(VC) (2015)</t>
-  </si>
-  <si>
-    <t>re-IWO (2015)</t>
-  </si>
-  <si>
-    <t>re-GVNS (2015)</t>
-  </si>
-  <si>
-    <t>ES (2021)</t>
-  </si>
-  <si>
-    <t>re-MASVND (2017)</t>
-  </si>
-  <si>
-    <t>HSNR (2022)</t>
-  </si>
-  <si>
-    <t>HGA (2023)</t>
-  </si>
-  <si>
-    <t>cuttoff time of (n/100) x 4 minutes</t>
-  </si>
-  <si>
-    <t>(n/1000) x 4 minutes</t>
-  </si>
-  <si>
     <t>Best</t>
   </si>
   <si>
-    <t>Avg</t>
-  </si>
-  <si>
     <t>Avg.</t>
   </si>
   <si>
@@ -233,6 +180,48 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Nc</t>
+  </si>
+  <si>
+    <t>LKH-3</t>
+  </si>
+  <si>
+    <t>OR-tools</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>ScheuduleNet</t>
+  </si>
+  <si>
+    <t>NCE</t>
+  </si>
+  <si>
+    <t>NCE-mTSP</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Nv-&gt;</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>HGA-avg</t>
+  </si>
+  <si>
+    <t>HGA-best</t>
   </si>
 </sst>
 </file>
@@ -254,70 +243,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -327,24 +263,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC93106-274A-4481-82E5-5181033E42CB}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,2122 +601,1656 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>159.57150861783987</v>
+      </c>
+      <c r="C1">
+        <v>159.57150861783984</v>
+      </c>
+      <c r="D1">
+        <v>159.57150861783984</v>
+      </c>
+      <c r="E1">
+        <v>159.57150861783984</v>
+      </c>
+      <c r="F1">
+        <v>159.57150861783987</v>
+      </c>
+      <c r="G1">
+        <v>159.57150861783984</v>
+      </c>
+      <c r="H1">
+        <v>159.57150861783984</v>
+      </c>
+      <c r="I1">
+        <v>159.57150861783987</v>
+      </c>
+      <c r="J1">
+        <v>159.57150861783987</v>
+      </c>
+      <c r="K1">
+        <v>159.57150861783984</v>
+      </c>
+      <c r="M1">
+        <f>MIN(B1:K1)</f>
+        <v>159.57150861783984</v>
+      </c>
+      <c r="N1" s="3">
+        <f>AVERAGE(B1:K1)</f>
+        <v>159.57150861783984</v>
+      </c>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>118.13375254600861</v>
+      </c>
+      <c r="C2">
+        <v>118.53661687920524</v>
+      </c>
+      <c r="D2">
+        <v>118.13375254600859</v>
+      </c>
+      <c r="E2">
+        <v>118.13375254600859</v>
+      </c>
+      <c r="F2">
+        <v>118.13375254600861</v>
+      </c>
+      <c r="G2">
+        <v>118.13375254600861</v>
+      </c>
+      <c r="H2">
+        <v>118.13375254600859</v>
+      </c>
+      <c r="I2">
+        <v>118.53661687920523</v>
+      </c>
+      <c r="J2">
+        <v>118.13375254600861</v>
+      </c>
+      <c r="K2">
+        <v>118.13375254600861</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M33" si="0">MIN(B2:K2)</f>
+        <v>118.13375254600859</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2:N33" si="1">AVERAGE(B2:K2)</f>
+        <v>118.21432541264792</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>112.07140580897513</v>
+      </c>
+      <c r="C3">
+        <v>112.071405808975</v>
+      </c>
+      <c r="D3">
+        <v>112.07140580897511</v>
+      </c>
+      <c r="E3">
+        <v>112.07140580897511</v>
+      </c>
+      <c r="F3">
+        <v>112.07140580897514</v>
+      </c>
+      <c r="G3">
+        <v>112.071405808975</v>
+      </c>
+      <c r="H3">
+        <v>112.071405808975</v>
+      </c>
+      <c r="I3">
+        <v>112.0714058089749</v>
+      </c>
+      <c r="J3">
+        <v>112.07140580897492</v>
+      </c>
+      <c r="K3">
+        <v>112.07140580897496</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>112.0714058089749</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
+        <v>112.07140580897502</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>159.57</v>
+        <v>8509.1624832976959</v>
       </c>
       <c r="C4">
-        <v>159.57</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="D4">
-        <v>159.57</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="E4">
-        <v>159.57</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="F4">
-        <v>159.57</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="G4">
-        <v>159.57</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="H4">
-        <v>159.85</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="I4">
-        <v>159.57</v>
+        <v>8509.1624832976959</v>
       </c>
       <c r="J4">
-        <v>159.57</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="K4">
-        <v>159.57</v>
-      </c>
-      <c r="L4">
-        <v>159.57</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="M4">
-        <v>159.57</v>
-      </c>
-      <c r="N4">
-        <v>159.85</v>
-      </c>
-      <c r="O4" s="4">
-        <v>159.57</v>
-      </c>
-      <c r="P4">
-        <v>160.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>8509.1624832976941</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
+        <v>8509.1624832976959</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>118.13</v>
+        <v>6795.3517674036384</v>
       </c>
       <c r="C5">
-        <v>118.13</v>
+        <v>6772.7138095654</v>
       </c>
       <c r="D5">
-        <v>118.13</v>
+        <v>6772.7138095653991</v>
       </c>
       <c r="E5">
-        <v>118.13</v>
+        <v>6767.0167084399909</v>
       </c>
       <c r="F5">
-        <v>118.13</v>
+        <v>6770.9676802655695</v>
       </c>
       <c r="G5">
-        <v>118.13</v>
+        <v>6772.7138095654</v>
       </c>
       <c r="H5">
-        <v>118.13</v>
+        <v>6771.1734666764551</v>
       </c>
       <c r="I5">
-        <v>118.13</v>
+        <v>6767.817955386131</v>
       </c>
       <c r="J5">
-        <v>118.13</v>
+        <v>6767.8179553861301</v>
       </c>
       <c r="K5">
-        <v>118.13</v>
-      </c>
-      <c r="L5">
-        <v>118.13</v>
+        <v>6772.7138095653991</v>
       </c>
       <c r="M5">
-        <v>118.13</v>
-      </c>
-      <c r="N5">
-        <v>118.13</v>
-      </c>
-      <c r="O5" s="4">
-        <v>118.54</v>
-      </c>
-      <c r="P5">
-        <v>118.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6767.0167084399909</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>6773.1000771819508</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>112.07</v>
+        <v>6358.4859833139471</v>
       </c>
       <c r="C6">
-        <v>112.07</v>
+        <v>6358.4859833139499</v>
       </c>
       <c r="D6">
-        <v>112.07</v>
+        <v>6358.485983313949</v>
       </c>
       <c r="E6">
-        <v>112.07</v>
+        <v>6358.4859833139417</v>
       </c>
       <c r="F6">
-        <v>112.07</v>
+        <v>6358.4859833139471</v>
       </c>
       <c r="G6">
-        <v>112.07</v>
+        <v>6358.4859833139481</v>
       </c>
       <c r="H6">
-        <v>112.07</v>
+        <v>6358.4859833139481</v>
       </c>
       <c r="I6">
-        <v>112.07</v>
+        <v>6358.4859833139426</v>
       </c>
       <c r="J6">
-        <v>112.07</v>
+        <v>6358.485983313949</v>
       </c>
       <c r="K6">
-        <v>112.07</v>
-      </c>
-      <c r="L6">
-        <v>112.07</v>
+        <v>6358.485983313949</v>
       </c>
       <c r="M6">
-        <v>112.07</v>
-      </c>
-      <c r="N6">
-        <v>112.07</v>
-      </c>
-      <c r="O6" s="4">
-        <v>112.07</v>
-      </c>
-      <c r="P6">
-        <v>112.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6358.4859833139417</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>6358.4859833139471</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>8509</v>
+        <v>6358.4859833139499</v>
       </c>
       <c r="C7">
-        <v>8544.69</v>
+        <v>6358.4859833139508</v>
       </c>
       <c r="D7">
-        <v>8590.07</v>
+        <v>6358.4859833139508</v>
       </c>
       <c r="E7">
-        <v>8509.16</v>
+        <v>6358.4859833139499</v>
       </c>
       <c r="F7">
-        <v>8510.86</v>
+        <v>6358.4859833139508</v>
       </c>
       <c r="G7">
-        <v>8544.34</v>
+        <v>6358.4859833139508</v>
       </c>
       <c r="H7">
-        <v>8590.9699999999993</v>
+        <v>6358.485983313949</v>
       </c>
       <c r="I7">
-        <v>8509.16</v>
+        <v>6358.4859833139499</v>
       </c>
       <c r="J7">
-        <v>8649.75</v>
+        <v>6358.485983313949</v>
       </c>
       <c r="K7">
-        <v>8509.16</v>
-      </c>
-      <c r="L7">
-        <v>8602.2999999999993</v>
+        <v>6358.4859833139499</v>
       </c>
       <c r="M7">
-        <v>8509.16</v>
-      </c>
-      <c r="N7">
-        <v>8513.75</v>
-      </c>
-      <c r="O7" s="4">
-        <v>8509.16</v>
-      </c>
-      <c r="P7">
-        <v>8510.5400000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6358.485983313949</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>6358.4859833139499</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>6766</v>
+        <v>13179.077776473421</v>
       </c>
       <c r="C8">
-        <v>6819.8</v>
+        <v>13182.30425075665</v>
       </c>
       <c r="D8">
-        <v>6921.35</v>
+        <v>13137.107181860583</v>
       </c>
       <c r="E8">
-        <v>6780.37</v>
+        <v>13263.326428432443</v>
       </c>
       <c r="F8">
-        <v>6833.45</v>
+        <v>13114.610460191276</v>
       </c>
       <c r="G8">
-        <v>6767.82</v>
+        <v>13101.567688654211</v>
       </c>
       <c r="H8">
-        <v>6776.61</v>
+        <v>13135.109419659675</v>
       </c>
       <c r="I8">
-        <v>6767.02</v>
+        <v>13287.721299033299</v>
       </c>
       <c r="J8">
-        <v>6832.74</v>
+        <v>13121.087710857684</v>
       </c>
       <c r="K8">
-        <v>6767.02</v>
-      </c>
-      <c r="L8">
-        <v>6801.75</v>
+        <v>13132.051848245297</v>
       </c>
       <c r="M8">
-        <v>6765.73</v>
-      </c>
-      <c r="N8">
-        <v>6770.67</v>
-      </c>
-      <c r="O8" s="4">
-        <v>6814.88</v>
-      </c>
-      <c r="P8">
-        <v>6836.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>13101.567688654211</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>13165.396406416452</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>6358</v>
+        <v>8575.1962422534052</v>
       </c>
       <c r="C9">
-        <v>6358.49</v>
+        <v>8652.3461111625966</v>
       </c>
       <c r="D9">
-        <v>6360.86</v>
+        <v>8653.1658752429212</v>
       </c>
       <c r="E9">
-        <v>6358.49</v>
+        <v>8654.6059485125934</v>
       </c>
       <c r="F9">
-        <v>6358.49</v>
+        <v>8498.9409745886733</v>
       </c>
       <c r="G9">
-        <v>6358.49</v>
+        <v>8681.0891689059972</v>
       </c>
       <c r="H9">
-        <v>6358.49</v>
+        <v>8537.1532014978966</v>
       </c>
       <c r="I9">
-        <v>6358.49</v>
+        <v>8588.5502354439432</v>
       </c>
       <c r="J9">
-        <v>6358.49</v>
+        <v>8809.6855188534028</v>
       </c>
       <c r="K9">
-        <v>6358.49</v>
-      </c>
-      <c r="L9">
-        <v>6358.49</v>
+        <v>8782.3063980627066</v>
       </c>
       <c r="M9">
-        <v>6358.49</v>
-      </c>
-      <c r="N9">
-        <v>6358.49</v>
-      </c>
-      <c r="O9" s="4">
-        <v>6358.49</v>
-      </c>
-      <c r="P9">
-        <v>6358.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>8498.9409745886733</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>8643.3039674524134</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>6358</v>
+        <v>5639.7409401002342</v>
       </c>
       <c r="C10">
-        <v>6358.49</v>
+        <v>5595.9398030635693</v>
       </c>
       <c r="D10">
-        <v>6358.49</v>
+        <v>5672.3678717612775</v>
       </c>
       <c r="E10">
-        <v>6358.49</v>
+        <v>5753.7285331062531</v>
       </c>
       <c r="F10">
-        <v>6358.49</v>
+        <v>5639.4354211940372</v>
       </c>
       <c r="G10">
-        <v>6358.49</v>
+        <v>5717.6937559356702</v>
       </c>
       <c r="H10">
-        <v>6358.49</v>
+        <v>5647.8902977583175</v>
       </c>
       <c r="I10">
-        <v>6358.49</v>
+        <v>5639.8990244129454</v>
       </c>
       <c r="J10">
-        <v>6358.49</v>
+        <v>5753.6144706992</v>
       </c>
       <c r="K10">
-        <v>6358.49</v>
-      </c>
-      <c r="L10">
-        <v>6358.49</v>
+        <v>5700.1426219046698</v>
       </c>
       <c r="M10">
-        <v>6358.49</v>
-      </c>
-      <c r="N10">
-        <v>6358.49</v>
-      </c>
-      <c r="O10" s="4">
-        <v>6358.49</v>
-      </c>
-      <c r="P10">
-        <v>6358.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5595.9398030635693</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="1"/>
+        <v>5676.0452739936172</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5246.4940674701975</v>
       </c>
       <c r="C11">
-        <v>3032.58</v>
+        <v>5246.4940674701966</v>
       </c>
       <c r="D11">
-        <v>3044.01</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="E11">
-        <v>3031.95</v>
+        <v>5246.4940674701957</v>
       </c>
       <c r="F11">
-        <v>3031.95</v>
+        <v>5246.4940674701966</v>
       </c>
       <c r="G11">
-        <v>3057.83</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="H11">
-        <v>3074.55</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="I11">
-        <v>3031.95</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="J11">
-        <v>3084.49</v>
+        <v>5246.4940674701893</v>
       </c>
       <c r="K11">
-        <v>3031.95</v>
-      </c>
-      <c r="L11">
-        <v>3047.71</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="M11">
-        <v>3031.95</v>
-      </c>
-      <c r="N11">
-        <v>3032.67</v>
-      </c>
-      <c r="O11" s="4">
-        <v>3031.95</v>
-      </c>
-      <c r="P11">
-        <v>3040.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5246.4940674701893</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5246.4940674701975</v>
       </c>
       <c r="C12">
-        <v>2438.19</v>
+        <v>5246.4940674701884</v>
       </c>
       <c r="D12">
-        <v>2462.75</v>
+        <v>5246.4940674701966</v>
       </c>
       <c r="E12">
-        <v>2409.9</v>
+        <v>5246.4940674701884</v>
       </c>
       <c r="F12">
-        <v>2429.5</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="G12">
-        <v>2413.5700000000002</v>
+        <v>5246.4940674701966</v>
       </c>
       <c r="H12">
-        <v>2427.75</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="I12">
-        <v>2409.63</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="J12">
-        <v>2422.41</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="K12">
-        <v>2409.63</v>
-      </c>
-      <c r="L12">
-        <v>2428.35</v>
+        <v>5246.4940674701975</v>
       </c>
       <c r="M12">
-        <v>2411.6799999999998</v>
-      </c>
-      <c r="N12">
-        <v>2415</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2411.85</v>
-      </c>
-      <c r="P12">
-        <v>2425.63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5246.4940674701884</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>5246.4940674701938</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2420.2475160164927</v>
       </c>
       <c r="C13">
-        <v>2299.16</v>
+        <v>2424.7850910256984</v>
       </c>
       <c r="D13">
-        <v>2299.16</v>
+        <v>2428.2087238981449</v>
       </c>
       <c r="E13">
-        <v>2299.16</v>
+        <v>2439.7218664455418</v>
       </c>
       <c r="F13">
-        <v>2299.16</v>
+        <v>2407.3354266968477</v>
       </c>
       <c r="G13">
-        <v>2299.16</v>
+        <v>2425.2989096452679</v>
       </c>
       <c r="H13">
-        <v>2299.16</v>
+        <v>2421.053963803271</v>
       </c>
       <c r="I13">
-        <v>2299.16</v>
+        <v>2444.6013193851172</v>
       </c>
       <c r="J13">
-        <v>2299.16</v>
+        <v>2407.3354266968472</v>
       </c>
       <c r="K13">
-        <v>2299.16</v>
-      </c>
-      <c r="L13">
-        <v>2299.16</v>
+        <v>2416.8271697250311</v>
       </c>
       <c r="M13">
-        <v>2299.16</v>
-      </c>
-      <c r="N13">
-        <v>2299.16</v>
-      </c>
-      <c r="O13" s="4">
-        <v>2299.16</v>
-      </c>
-      <c r="P13" s="4">
-        <v>2299.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2407.3354266968472</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>2423.541541333826</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1744.2595330937449</v>
       </c>
       <c r="C14">
-        <v>2299.16</v>
+        <v>1744.2595330937449</v>
       </c>
       <c r="D14">
-        <v>2299.16</v>
+        <v>1779.5714113193731</v>
       </c>
       <c r="E14">
-        <v>2299.16</v>
+        <v>1782.0840452396826</v>
       </c>
       <c r="F14">
-        <v>2299.16</v>
+        <v>1744.2595330937449</v>
       </c>
       <c r="G14">
-        <v>2299.16</v>
+        <v>1752.0003816939784</v>
       </c>
       <c r="H14">
-        <v>2299.16</v>
+        <v>1742.9774658726471</v>
       </c>
       <c r="I14">
-        <v>2299.16</v>
+        <v>1744.2595330937449</v>
       </c>
       <c r="J14">
-        <v>2299.16</v>
+        <v>1744.2595330937449</v>
       </c>
       <c r="K14">
-        <v>2299.16</v>
-      </c>
-      <c r="L14">
-        <v>2299.16</v>
+        <v>1744.2595330937449</v>
       </c>
       <c r="M14">
-        <v>2299.16</v>
-      </c>
-      <c r="N14">
-        <v>2299.16</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2299.16</v>
-      </c>
-      <c r="P14" s="4">
-        <v>2299.16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1742.9774658726471</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>1752.2190502688154</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>13151</v>
+        <v>1554.6364153558989</v>
       </c>
       <c r="C15">
-        <v>13497.2</v>
+        <v>1554.6364153558982</v>
       </c>
       <c r="D15">
-        <v>13645.64</v>
+        <v>1554.6364153558998</v>
       </c>
       <c r="E15">
-        <v>13078.4</v>
+        <v>1557.9383786553776</v>
       </c>
       <c r="F15">
-        <v>13259.97</v>
+        <v>1554.6364153558982</v>
       </c>
       <c r="G15">
-        <v>13595.3</v>
+        <v>1554.6364153558973</v>
       </c>
       <c r="H15">
-        <v>13730.7</v>
+        <v>1554.6364153558995</v>
       </c>
       <c r="I15">
-        <v>13303.8</v>
+        <v>1554.6364153559002</v>
       </c>
       <c r="J15">
-        <v>13526.7</v>
+        <v>1554.6364153558998</v>
       </c>
       <c r="K15">
-        <v>13234.1</v>
-      </c>
-      <c r="L15">
-        <v>13411.26</v>
+        <v>1554.6364153558998</v>
       </c>
       <c r="M15">
-        <v>13075.8</v>
-      </c>
-      <c r="N15">
-        <v>13169.37</v>
-      </c>
-      <c r="O15" s="4">
-        <v>13163.72</v>
-      </c>
-      <c r="P15">
-        <v>13336.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1554.6364153558973</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="1"/>
+        <v>1554.9666116858468</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>8466</v>
+        <v>1554.6364153558998</v>
       </c>
       <c r="C16">
-        <v>8895.2199999999993</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="D16">
-        <v>9329.9500000000007</v>
+        <v>1554.6364153558991</v>
       </c>
       <c r="E16">
-        <v>8477.9599999999991</v>
+        <v>1554.6364153558998</v>
       </c>
       <c r="F16">
-        <v>8650.11</v>
+        <v>1554.6364153558964</v>
       </c>
       <c r="G16">
-        <v>8928.35</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="H16">
-        <v>8984.99</v>
+        <v>1554.6364153558989</v>
       </c>
       <c r="I16">
-        <v>8563.08</v>
+        <v>1554.6364153558952</v>
       </c>
       <c r="J16">
-        <v>8757.2199999999993</v>
+        <v>1554.6364153558989</v>
       </c>
       <c r="K16">
-        <v>8493.6200000000008</v>
-      </c>
-      <c r="L16">
-        <v>8686.61</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="M16">
-        <v>8477.9599999999991</v>
-      </c>
-      <c r="N16">
-        <v>8538.83</v>
-      </c>
-      <c r="O16" s="4">
-        <v>8561.73</v>
-      </c>
-      <c r="P16">
-        <v>8745.17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1554.6364153558952</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>1554.6364153558989</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>5557</v>
+        <v>1554.6364153559002</v>
       </c>
       <c r="C17">
-        <v>6020.34</v>
+        <v>1554.6364153558993</v>
       </c>
       <c r="D17">
-        <v>6189.74</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="E17">
-        <v>5751.41</v>
+        <v>1554.6364153559002</v>
       </c>
       <c r="F17">
-        <v>5851.79</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="G17">
-        <v>5825.83</v>
+        <v>1554.6364153559002</v>
       </c>
       <c r="H17">
-        <v>5862.65</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="I17">
-        <v>5625.32</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="J17">
-        <v>5718.45</v>
+        <v>1554.6364153559002</v>
       </c>
       <c r="K17">
-        <v>5666.45</v>
-      </c>
-      <c r="L17">
-        <v>5763.28</v>
+        <v>1554.6364153559</v>
       </c>
       <c r="M17">
-        <v>5590.64</v>
-      </c>
-      <c r="N17">
-        <v>5604.92</v>
-      </c>
-      <c r="O17" s="4">
-        <v>5773.15</v>
-      </c>
-      <c r="P17">
-        <v>5945.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1554.6364153558993</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>1554.6364153559002</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>5246</v>
+        <v>10901.10646306289</v>
       </c>
       <c r="C18">
-        <v>5262.55</v>
+        <v>10779.100847003736</v>
       </c>
       <c r="D18">
-        <v>5307.2</v>
+        <v>10783.816962738045</v>
       </c>
       <c r="E18">
-        <v>5246.49</v>
+        <v>10955.781288867456</v>
       </c>
       <c r="F18">
-        <v>5247.62</v>
+        <v>10897.633528956605</v>
       </c>
       <c r="G18">
-        <v>5246.49</v>
+        <v>10897.096798049324</v>
       </c>
       <c r="H18">
-        <v>5246.49</v>
+        <v>10865.369350074552</v>
       </c>
       <c r="I18">
-        <v>5246.49</v>
+        <v>10905.430465663705</v>
       </c>
       <c r="J18">
-        <v>5247.21</v>
+        <v>10955.922749559793</v>
       </c>
       <c r="K18">
-        <v>5246.49</v>
-      </c>
-      <c r="L18">
-        <v>5246.49</v>
+        <v>10901.891976969093</v>
       </c>
       <c r="M18">
-        <v>5246.49</v>
-      </c>
-      <c r="N18">
-        <v>5246.49</v>
-      </c>
-      <c r="O18" s="4">
-        <v>5246.49</v>
-      </c>
-      <c r="P18">
-        <v>5249.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>10779.100847003736</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>10884.315043094521</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>5246</v>
+        <v>7618.1008694487618</v>
       </c>
       <c r="C19">
-        <v>5246.49</v>
+        <v>7736.9256783732735</v>
       </c>
       <c r="D19">
-        <v>5246.49</v>
+        <v>7590.1276140155505</v>
       </c>
       <c r="E19">
-        <v>5246.49</v>
+        <v>7718.8419446474754</v>
       </c>
       <c r="F19">
-        <v>5246.49</v>
+        <v>7761.261692858242</v>
       </c>
       <c r="G19">
-        <v>5246.49</v>
+        <v>7690.6688315574129</v>
       </c>
       <c r="H19">
-        <v>5246.49</v>
+        <v>7787.1778309433594</v>
       </c>
       <c r="I19">
-        <v>5246.49</v>
+        <v>7749.2408061929737</v>
       </c>
       <c r="J19">
-        <v>5246.49</v>
+        <v>7721.2528644962631</v>
       </c>
       <c r="K19">
-        <v>5246.49</v>
-      </c>
-      <c r="L19">
-        <v>5246.49</v>
+        <v>7453.9245889524836</v>
       </c>
       <c r="M19">
-        <v>5246.49</v>
-      </c>
-      <c r="N19">
-        <v>5246.49</v>
-      </c>
-      <c r="O19" s="4">
-        <v>5246.49</v>
-      </c>
-      <c r="P19">
-        <v>5246.49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7453.9245889524836</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>7682.7522721485802</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>2407.34</v>
+        <v>6223.216210288695</v>
       </c>
       <c r="C20">
-        <v>2445.92</v>
+        <v>6223.2162102886932</v>
       </c>
       <c r="D20">
-        <v>2486.4299999999998</v>
+        <v>6223.2162102886932</v>
       </c>
       <c r="E20">
-        <v>2407.34</v>
+        <v>6223.2162102886932</v>
       </c>
       <c r="F20">
-        <v>2421.4</v>
+        <v>6223.2162102886932</v>
       </c>
       <c r="G20">
-        <v>2443.1</v>
+        <v>6280.7346506683489</v>
       </c>
       <c r="H20">
-        <v>2467.0700000000002</v>
+        <v>6280.7346506683489</v>
       </c>
       <c r="I20">
-        <v>2423.17</v>
+        <v>6280.7346506683507</v>
       </c>
       <c r="J20">
-        <v>2491</v>
+        <v>6223.2162102886932</v>
       </c>
       <c r="K20">
-        <v>2433.8000000000002</v>
-      </c>
-      <c r="L20">
-        <v>2468.12</v>
+        <v>6223.2162102886914</v>
       </c>
       <c r="M20">
-        <v>2407.34</v>
-      </c>
-      <c r="N20">
-        <v>2435.4899999999998</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2424.62</v>
-      </c>
-      <c r="P20">
-        <v>2443.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6223.2162102886914</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="1"/>
+        <v>6240.4717424025903</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>1742</v>
+        <v>6223.2162102886878</v>
       </c>
       <c r="C21">
-        <v>1858.94</v>
+        <v>6223.2162102886932</v>
       </c>
       <c r="D21">
-        <v>1894.78</v>
+        <v>6223.2162102886896</v>
       </c>
       <c r="E21">
-        <v>1744.57</v>
+        <v>6223.216210288685</v>
       </c>
       <c r="F21">
-        <v>1777.9</v>
+        <v>6223.2162102886932</v>
       </c>
       <c r="G21">
-        <v>1795.75</v>
+        <v>6223.2162102886896</v>
       </c>
       <c r="H21">
-        <v>1807.36</v>
+        <v>6223.2162102886941</v>
       </c>
       <c r="I21">
-        <v>1751.85</v>
+        <v>6223.2162102886941</v>
       </c>
       <c r="J21">
-        <v>1797.71</v>
+        <v>6223.2162102886941</v>
       </c>
       <c r="K21">
-        <v>1744.26</v>
-      </c>
-      <c r="L21">
-        <v>1779.32</v>
+        <v>6223.2162102886923</v>
       </c>
       <c r="M21">
-        <v>1741.71</v>
-      </c>
-      <c r="N21">
-        <v>1743.48</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1754.21</v>
-      </c>
-      <c r="P21">
-        <v>1788.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6223.216210288685</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="1"/>
+        <v>6223.2162102886914</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>1554</v>
+        <v>16167.151251818448</v>
       </c>
       <c r="C22">
-        <v>1562.13</v>
+        <v>16028.847414022437</v>
       </c>
       <c r="D22">
-        <v>1578.49</v>
+        <v>16173.046756945056</v>
       </c>
       <c r="E22">
-        <v>1554.64</v>
+        <v>16110.575441481313</v>
       </c>
       <c r="F22">
-        <v>1557.22</v>
+        <v>16028.144073633295</v>
       </c>
       <c r="G22">
-        <v>1554.64</v>
+        <v>15928.715658624989</v>
       </c>
       <c r="H22">
-        <v>1556.1</v>
+        <v>15887.081238018378</v>
       </c>
       <c r="I22">
-        <v>1554.64</v>
+        <v>15928.775393301452</v>
       </c>
       <c r="J22">
-        <v>1554.64</v>
+        <v>16356.384314981868</v>
       </c>
       <c r="K22">
-        <v>1554.64</v>
-      </c>
-      <c r="L22">
-        <v>1559.1</v>
+        <v>16117.275880138859</v>
       </c>
       <c r="M22">
-        <v>1554.64</v>
-      </c>
-      <c r="N22">
-        <v>1554.64</v>
-      </c>
-      <c r="O22" s="4">
-        <v>1554.64</v>
-      </c>
-      <c r="P22">
-        <v>1556.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>15887.081238018378</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="1"/>
+        <v>16072.599742296608</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>1554</v>
+        <v>12065.318821860861</v>
       </c>
       <c r="C23">
-        <v>1554.64</v>
+        <v>12168.569509372586</v>
       </c>
       <c r="D23">
-        <v>1554.64</v>
+        <v>11828.908835269929</v>
       </c>
       <c r="E23">
-        <v>1554.64</v>
+        <v>11625.939075219749</v>
       </c>
       <c r="F23">
-        <v>1554.64</v>
+        <v>11904.512115616331</v>
       </c>
       <c r="G23">
-        <v>1554.64</v>
+        <v>12083.627609137851</v>
       </c>
       <c r="H23">
-        <v>1554.64</v>
+        <v>11529.811202775212</v>
       </c>
       <c r="I23">
-        <v>1554.64</v>
+        <v>11788.41044858098</v>
       </c>
       <c r="J23">
-        <v>1554.64</v>
+        <v>12178.41686698089</v>
       </c>
       <c r="K23">
-        <v>1554.64</v>
-      </c>
-      <c r="L23">
-        <v>1554.64</v>
+        <v>11712.752578075026</v>
       </c>
       <c r="M23">
-        <v>1554.64</v>
-      </c>
-      <c r="N23">
-        <v>1554.64</v>
-      </c>
-      <c r="O23" s="4">
-        <v>1554.64</v>
-      </c>
-      <c r="P23">
-        <v>1554.64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>11529.811202775212</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="1"/>
+        <v>11888.626706288942</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>1554</v>
+        <v>9826.7686387919603</v>
       </c>
       <c r="C24">
-        <v>1554.64</v>
+        <v>9731.1660144095767</v>
       </c>
       <c r="D24">
-        <v>1554.64</v>
+        <v>9812.8616257367485</v>
       </c>
       <c r="E24">
-        <v>1554.64</v>
+        <v>9731.1660144095786</v>
       </c>
       <c r="F24">
-        <v>1554.64</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="G24">
-        <v>1554.64</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="H24">
-        <v>1554.64</v>
+        <v>9731.1660144095767</v>
       </c>
       <c r="I24">
-        <v>1554.64</v>
+        <v>9731.1660144095749</v>
       </c>
       <c r="J24">
-        <v>1554.64</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="K24">
-        <v>1554.64</v>
-      </c>
-      <c r="L24">
-        <v>1554.64</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="M24">
-        <v>1554.64</v>
-      </c>
-      <c r="N24">
-        <v>1554.64</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1554.64</v>
-      </c>
-      <c r="P24">
-        <v>1554.64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>9731.1660144095731</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>9748.8958379805317</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>10768.1</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="C25">
-        <v>11223.3</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="D25">
-        <v>11511.69</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="E25">
-        <v>10801.3</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="F25">
-        <v>10965.59</v>
+        <v>9731.1660144095749</v>
       </c>
       <c r="G25">
-        <v>11061.6</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="H25">
-        <v>11256.6</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="I25">
-        <v>10883.3</v>
+        <v>9731.1660144095731</v>
       </c>
       <c r="J25">
-        <v>11174.7</v>
+        <v>9731.1660144095749</v>
       </c>
       <c r="K25">
-        <v>10833.6</v>
-      </c>
-      <c r="L25">
-        <v>11136.7</v>
+        <v>9731.1660144095749</v>
       </c>
       <c r="M25">
-        <v>10748.1</v>
-      </c>
-      <c r="N25">
-        <v>10987.69</v>
-      </c>
-      <c r="O25" s="4">
-        <v>10748.94</v>
-      </c>
-      <c r="P25">
-        <v>10912.64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>9731.1660144095731</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>9731.1660144095749</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>7415.54</v>
+        <v>3180.4038159189718</v>
       </c>
       <c r="C26">
-        <v>8417.81</v>
+        <v>3196.5747689397899</v>
       </c>
       <c r="D26">
-        <v>8689.64</v>
+        <v>3188.0808136669984</v>
       </c>
       <c r="E26">
-        <v>7497.21</v>
+        <v>3196.2732812420672</v>
       </c>
       <c r="F26">
-        <v>7697.45</v>
+        <v>3193.2692738915921</v>
       </c>
       <c r="G26">
-        <v>7693.65</v>
+        <v>3139.6832074354911</v>
       </c>
       <c r="H26">
-        <v>7763.61</v>
+        <v>3225.3700266655901</v>
       </c>
       <c r="I26">
-        <v>7536.91</v>
+        <v>3149.7677904695397</v>
       </c>
       <c r="J26">
-        <v>7770.43</v>
+        <v>3196.2028673716704</v>
       </c>
       <c r="K26">
-        <v>7484.17</v>
-      </c>
-      <c r="L26">
-        <v>7634.61</v>
+        <v>3231.0583869240286</v>
       </c>
       <c r="M26">
-        <v>7418.87</v>
-      </c>
-      <c r="N26">
-        <v>7494.44</v>
-      </c>
-      <c r="O26" s="4">
-        <v>7515.52</v>
-      </c>
-      <c r="P26">
-        <v>7765.38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3139.6832074354911</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="1"/>
+        <v>3189.668423252574</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>6223.22</v>
+        <v>2097.742473468275</v>
       </c>
       <c r="C27">
-        <v>6299.77</v>
+        <v>2058.2855716077638</v>
       </c>
       <c r="D27">
-        <v>6456.58</v>
+        <v>2170.1428941246068</v>
       </c>
       <c r="E27">
-        <v>6223.22</v>
+        <v>2117.1436009569306</v>
       </c>
       <c r="F27">
-        <v>6255.37</v>
+        <v>2063.2092504595694</v>
       </c>
       <c r="G27">
-        <v>6224.39</v>
+        <v>2101.437988143633</v>
       </c>
       <c r="H27">
-        <v>6270.38</v>
+        <v>2055.9624905044739</v>
       </c>
       <c r="I27">
-        <v>6223.22</v>
+        <v>2055.6121129155267</v>
       </c>
       <c r="J27">
-        <v>6240.52</v>
+        <v>2085.0481311207673</v>
       </c>
       <c r="K27">
-        <v>6223.22</v>
-      </c>
-      <c r="L27">
-        <v>6266.44</v>
+        <v>2068.5262398088585</v>
       </c>
       <c r="M27">
-        <v>6223.22</v>
-      </c>
-      <c r="N27">
-        <v>6223.22</v>
-      </c>
-      <c r="O27" s="4">
-        <v>6223.22</v>
-      </c>
-      <c r="P27">
-        <v>6236.69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2055.6121129155267</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="1"/>
+        <v>2087.3110753110404</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>6223.22</v>
+        <v>1374.8622526874065</v>
       </c>
       <c r="C28">
-        <v>6223.22</v>
+        <v>1400.3163179938088</v>
       </c>
       <c r="D28">
-        <v>6223.22</v>
+        <v>1384.431195240224</v>
       </c>
       <c r="E28">
-        <v>6223.22</v>
+        <v>1399.830163578217</v>
       </c>
       <c r="F28">
-        <v>6223.22</v>
+        <v>1376.8528458161002</v>
       </c>
       <c r="G28">
-        <v>6223.22</v>
+        <v>1385.7812160961332</v>
       </c>
       <c r="H28">
-        <v>6223.22</v>
+        <v>1401.4238265899285</v>
       </c>
       <c r="I28">
-        <v>6223.22</v>
+        <v>1337.2418692061353</v>
       </c>
       <c r="J28">
-        <v>6223.22</v>
+        <v>1380.0924367745251</v>
       </c>
       <c r="K28">
-        <v>6223.22</v>
-      </c>
-      <c r="L28">
-        <v>6223.22</v>
+        <v>1388.0326668498501</v>
       </c>
       <c r="M28">
-        <v>6223.22</v>
-      </c>
-      <c r="N28">
-        <v>6223.22</v>
-      </c>
-      <c r="O28" s="4">
-        <v>6223.22</v>
-      </c>
-      <c r="P28">
-        <v>6223.22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1337.2418692061353</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="1"/>
+        <v>1382.8864790832329</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>16088.73</v>
+        <v>1240.942168028663</v>
       </c>
       <c r="C29">
-        <v>17339.3</v>
+        <v>1253.6560609087123</v>
       </c>
       <c r="D29">
-        <v>18119.72</v>
+        <v>1240.9421680286632</v>
       </c>
       <c r="E29">
-        <v>16133.4</v>
+        <v>1240.9421680286632</v>
       </c>
       <c r="F29">
-        <v>17006.919999999998</v>
+        <v>1241.5122750271344</v>
       </c>
       <c r="G29">
-        <v>16362.3</v>
+        <v>1252.0969646699657</v>
       </c>
       <c r="H29">
-        <v>16532.080000000002</v>
+        <v>1241.2732482034046</v>
       </c>
       <c r="I29">
-        <v>16349.6</v>
+        <v>1246.5739652374614</v>
       </c>
       <c r="J29">
-        <v>16797.8</v>
+        <v>1260.2964299323748</v>
       </c>
       <c r="K29">
-        <v>16551.599999999999</v>
-      </c>
-      <c r="L29">
-        <v>16886.009999999998</v>
+        <v>1240.9421680286632</v>
       </c>
       <c r="M29">
-        <v>15902.5</v>
-      </c>
-      <c r="N29">
-        <v>16207.05</v>
-      </c>
-      <c r="O29" s="4">
-        <v>15966.75</v>
-      </c>
-      <c r="P29">
-        <v>16182.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1240.942168028663</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="1"/>
+        <v>1245.9177616093707</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>11524.29</v>
+        <v>20478.760898718756</v>
       </c>
       <c r="C30">
-        <v>13893.6</v>
+        <v>20396.750668786204</v>
       </c>
       <c r="D30">
-        <v>14197.25</v>
+        <v>20512.257679899561</v>
       </c>
       <c r="E30">
-        <v>12291.6</v>
+        <v>20316.916039638676</v>
       </c>
       <c r="F30">
-        <v>12882.38</v>
+        <v>20334.110956264813</v>
       </c>
       <c r="G30">
-        <v>11903</v>
+        <v>20152.140955382838</v>
       </c>
       <c r="H30">
-        <v>12069.83</v>
+        <v>20148.381286439293</v>
       </c>
       <c r="I30">
-        <v>11619.6</v>
+        <v>20490.442346390726</v>
       </c>
       <c r="J30">
-        <v>11907.9</v>
+        <v>20343.395699496261</v>
       </c>
       <c r="K30">
-        <v>11741.6</v>
-      </c>
-      <c r="L30">
-        <v>12023.74</v>
+        <v>20383.771625420417</v>
       </c>
       <c r="M30">
-        <v>11295.2</v>
-      </c>
-      <c r="N30">
-        <v>11596.35</v>
-      </c>
-      <c r="O30" s="4">
-        <v>11699.86</v>
-      </c>
-      <c r="P30">
-        <v>12102.26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>20148.381286439293</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="1"/>
+        <v>20355.692815643753</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>9731.17</v>
+        <v>13131.065581924655</v>
       </c>
       <c r="C31">
-        <v>10444.4</v>
+        <v>13265.632124032478</v>
       </c>
       <c r="D31">
-        <v>10588.94</v>
+        <v>13852.984546577229</v>
       </c>
       <c r="E31">
-        <v>9861.64</v>
+        <v>13444.881725838344</v>
       </c>
       <c r="F31">
-        <v>9963.31</v>
+        <v>13508.282182253512</v>
       </c>
       <c r="G31">
-        <v>9742.98</v>
+        <v>12906.068357598033</v>
       </c>
       <c r="H31">
-        <v>9754.76</v>
+        <v>13125.930848787946</v>
       </c>
       <c r="I31">
-        <v>9731.18</v>
+        <v>13437.719258448764</v>
       </c>
       <c r="J31">
-        <v>9736.17</v>
+        <v>13150.287214912953</v>
       </c>
       <c r="K31">
-        <v>9731.17</v>
-      </c>
-      <c r="L31">
-        <v>9797.3799999999992</v>
+        <v>13025.738595093491</v>
       </c>
       <c r="M31">
-        <v>9731.17</v>
-      </c>
-      <c r="N31">
-        <v>9731.17</v>
-      </c>
-      <c r="O31" s="4">
-        <v>9731.17</v>
-      </c>
-      <c r="P31">
-        <v>10026.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12906.068357598033</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="1"/>
+        <v>13284.859043546739</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>9731.17</v>
+        <v>8263.4489560804268</v>
       </c>
       <c r="C32">
-        <v>9750.68</v>
+        <v>8377.398719149407</v>
       </c>
       <c r="D32">
-        <v>9787.11</v>
+        <v>8300.9895934235428</v>
       </c>
       <c r="E32">
-        <v>9731.17</v>
+        <v>8218.7844446699874</v>
       </c>
       <c r="F32">
-        <v>9731.18</v>
+        <v>8210.728523257676</v>
       </c>
       <c r="G32">
-        <v>9731.17</v>
+        <v>8187.6814196610276</v>
       </c>
       <c r="H32">
-        <v>9731.17</v>
+        <v>8197.0515170081362</v>
       </c>
       <c r="I32">
-        <v>9731.17</v>
+        <v>8363.217815568285</v>
       </c>
       <c r="J32">
-        <v>9731.18</v>
+        <v>8081.145319993424</v>
       </c>
       <c r="K32">
-        <v>9731.17</v>
-      </c>
-      <c r="L32">
-        <v>9731.17</v>
+        <v>8265.2282275473572</v>
       </c>
       <c r="M32">
-        <v>9731.17</v>
-      </c>
-      <c r="N32">
-        <v>9731.17</v>
-      </c>
-      <c r="O32" s="4">
-        <v>9731.17</v>
-      </c>
-      <c r="P32">
-        <v>9731.17</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>8081.145319993424</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="1"/>
+        <v>8246.5674536359256</v>
+      </c>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>6639.4591328988581</v>
       </c>
       <c r="C33">
-        <v>12011</v>
+        <v>6623.6964953205434</v>
       </c>
       <c r="D33">
-        <v>12169.15</v>
+        <v>6664.4782172203977</v>
       </c>
       <c r="E33">
-        <v>11258</v>
+        <v>6696.8006766317958</v>
       </c>
       <c r="F33">
-        <v>11525.5</v>
+        <v>6625.6492629240456</v>
       </c>
       <c r="G33">
-        <v>10656</v>
+        <v>6635.0403489218343</v>
       </c>
       <c r="H33">
-        <v>10762.95</v>
+        <v>6671.9752699310829</v>
       </c>
       <c r="I33">
-        <v>10585</v>
+        <v>6649.2506163067483</v>
       </c>
       <c r="J33">
-        <v>10953.9</v>
+        <v>6702.9638869348364</v>
       </c>
       <c r="K33">
-        <v>10566</v>
-      </c>
-      <c r="L33">
-        <v>10853.05</v>
+        <v>6676.1497455320759</v>
       </c>
       <c r="M33">
-        <v>10231</v>
-      </c>
-      <c r="N33">
-        <v>10565.3</v>
-      </c>
-      <c r="O33" s="4"/>
+        <f t="shared" si="0"/>
+        <v>6623.6964953205434</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="1"/>
+        <v>6658.546365262222</v>
+      </c>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>8899</v>
-      </c>
-      <c r="D34">
-        <v>9215.85</v>
-      </c>
-      <c r="E34">
-        <v>8518</v>
-      </c>
-      <c r="F34">
-        <v>8895.7999999999993</v>
-      </c>
-      <c r="G34">
-        <v>8019</v>
-      </c>
-      <c r="H34">
-        <v>8146.85</v>
-      </c>
-      <c r="I34">
-        <v>7344</v>
-      </c>
-      <c r="J34">
-        <v>7463.5</v>
-      </c>
-      <c r="K34">
-        <v>7279</v>
-      </c>
-      <c r="L34">
-        <v>7429.5</v>
-      </c>
-      <c r="M34">
-        <v>7067</v>
-      </c>
-      <c r="N34">
-        <v>7334</v>
-      </c>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>6696</v>
-      </c>
-      <c r="D35">
-        <v>6829.1</v>
-      </c>
-      <c r="E35">
-        <v>6427</v>
-      </c>
-      <c r="F35">
-        <v>6552.9</v>
-      </c>
-      <c r="G35">
-        <v>6449</v>
-      </c>
-      <c r="H35">
-        <v>6650</v>
-      </c>
-      <c r="I35">
-        <v>5761</v>
-      </c>
-      <c r="J35">
-        <v>5806.75</v>
-      </c>
-      <c r="K35">
-        <v>5745</v>
-      </c>
-      <c r="L35">
-        <v>5809</v>
-      </c>
-      <c r="M35">
-        <v>5709</v>
-      </c>
-      <c r="N35">
-        <v>5738.9</v>
-      </c>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>5912</v>
-      </c>
-      <c r="D36">
-        <v>6008.15</v>
-      </c>
-      <c r="E36">
-        <v>5745</v>
-      </c>
-      <c r="F36">
-        <v>5836.9</v>
-      </c>
-      <c r="G36">
-        <v>5991</v>
-      </c>
-      <c r="H36">
-        <v>6090.7</v>
-      </c>
-      <c r="I36">
-        <v>5580</v>
-      </c>
-      <c r="J36">
-        <v>5580.05</v>
-      </c>
-      <c r="K36">
-        <v>5580</v>
-      </c>
-      <c r="L36">
-        <v>5582.9</v>
-      </c>
-      <c r="M36">
-        <v>5580</v>
-      </c>
-      <c r="N36">
-        <v>5580</v>
-      </c>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>3272.95</v>
-      </c>
-      <c r="C37">
-        <v>3821.06</v>
-      </c>
-      <c r="D37">
-        <v>3948.67</v>
-      </c>
-      <c r="E37">
-        <v>3688.79</v>
-      </c>
-      <c r="F37">
-        <v>3786.16</v>
-      </c>
-      <c r="G37">
-        <v>3359.95</v>
-      </c>
-      <c r="H37">
-        <v>3406.72</v>
-      </c>
-      <c r="I37">
-        <v>3444.2</v>
-      </c>
-      <c r="J37">
-        <v>3485.74</v>
-      </c>
-      <c r="K37">
-        <v>3295.9</v>
-      </c>
-      <c r="L37">
-        <v>3364.2</v>
-      </c>
-      <c r="M37">
-        <v>3187.9</v>
-      </c>
-      <c r="N37">
-        <v>3237.29</v>
-      </c>
-      <c r="O37" s="4">
-        <v>3206.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>2092.77</v>
-      </c>
-      <c r="C38">
-        <v>2748.91</v>
-      </c>
-      <c r="D38">
-        <v>2824.59</v>
-      </c>
-      <c r="E38">
-        <v>2627.74</v>
-      </c>
-      <c r="F38">
-        <v>2781.71</v>
-      </c>
-      <c r="G38">
-        <v>2252.9299999999998</v>
-      </c>
-      <c r="H38">
-        <v>2289.48</v>
-      </c>
-      <c r="I38">
-        <v>2125.5300000000002</v>
-      </c>
-      <c r="J38">
-        <v>2189.92</v>
-      </c>
-      <c r="K38">
-        <v>2120.7399999999998</v>
-      </c>
-      <c r="L38">
-        <v>2145.38</v>
-      </c>
-      <c r="M38">
-        <v>2006.46</v>
-      </c>
-      <c r="N38">
-        <v>2044.32</v>
-      </c>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>1360.89</v>
-      </c>
-      <c r="C39">
-        <v>1725.45</v>
-      </c>
-      <c r="D39">
-        <v>1766.78</v>
-      </c>
-      <c r="E39">
-        <v>1692.31</v>
-      </c>
-      <c r="F39">
-        <v>1718.75</v>
-      </c>
-      <c r="G39">
-        <v>1440.55</v>
-      </c>
-      <c r="H39">
-        <v>1457.26</v>
-      </c>
-      <c r="I39">
-        <v>1373.46</v>
-      </c>
-      <c r="J39">
-        <v>1396.78</v>
-      </c>
-      <c r="K39">
-        <v>1396.92</v>
-      </c>
-      <c r="L39">
-        <v>1424.76</v>
-      </c>
-      <c r="M39">
-        <v>1334.76</v>
-      </c>
-      <c r="N39">
-        <v>1345.88</v>
-      </c>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>1231.69</v>
-      </c>
-      <c r="C40">
-        <v>1386.96</v>
-      </c>
-      <c r="D40">
-        <v>1416.13</v>
-      </c>
-      <c r="E40">
-        <v>1371.32</v>
-      </c>
-      <c r="F40">
-        <v>1390.09</v>
-      </c>
-      <c r="G40">
-        <v>1235.21</v>
-      </c>
-      <c r="H40">
-        <v>1240.96</v>
-      </c>
-      <c r="I40">
-        <v>1231.69</v>
-      </c>
-      <c r="J40">
-        <v>1231.69</v>
-      </c>
-      <c r="K40">
-        <v>1237.97</v>
-      </c>
-      <c r="L40">
-        <v>1244.26</v>
-      </c>
-      <c r="M40">
-        <v>1231.69</v>
-      </c>
-      <c r="N40">
-        <v>1231.69</v>
-      </c>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>22252.31</v>
-      </c>
-      <c r="C41">
-        <v>27011.1</v>
-      </c>
-      <c r="D41">
-        <v>27466.52</v>
-      </c>
-      <c r="E41">
-        <v>25557.9</v>
-      </c>
-      <c r="F41">
-        <v>26439.83</v>
-      </c>
-      <c r="G41">
-        <v>21781.1</v>
-      </c>
-      <c r="H41">
-        <v>22260.07</v>
-      </c>
-      <c r="I41">
-        <v>23193.1</v>
-      </c>
-      <c r="J41">
-        <v>23640</v>
-      </c>
-      <c r="K41">
-        <v>22255.200000000001</v>
-      </c>
-      <c r="L41">
-        <v>22941.19</v>
-      </c>
-      <c r="M41">
-        <v>20813.8</v>
-      </c>
-      <c r="N41">
-        <v>21144.92</v>
-      </c>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>14099.5</v>
-      </c>
-      <c r="C42">
-        <v>18692.2</v>
-      </c>
-      <c r="D42">
-        <v>19292.07</v>
-      </c>
-      <c r="E42">
-        <v>18703.5</v>
-      </c>
-      <c r="F42">
-        <v>19226.82</v>
-      </c>
-      <c r="G42">
-        <v>14566.2</v>
-      </c>
-      <c r="H42">
-        <v>14853.24</v>
-      </c>
-      <c r="I42">
-        <v>14333</v>
-      </c>
-      <c r="J42">
-        <v>14601.3</v>
-      </c>
-      <c r="K42">
-        <v>14088.4</v>
-      </c>
-      <c r="L42">
-        <v>14305.57</v>
-      </c>
-      <c r="M42">
-        <v>13032.3</v>
-      </c>
-      <c r="N42">
-        <v>13216.99</v>
-      </c>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>8160.25</v>
-      </c>
-      <c r="C43">
-        <v>11463.3</v>
-      </c>
-      <c r="D43">
-        <v>11663.99</v>
-      </c>
-      <c r="E43">
-        <v>11170</v>
-      </c>
-      <c r="F43">
-        <v>11388.41</v>
-      </c>
-      <c r="G43">
-        <v>8679.08</v>
-      </c>
-      <c r="H43">
-        <v>8932.06</v>
-      </c>
-      <c r="I43">
-        <v>8222.4</v>
-      </c>
-      <c r="J43">
-        <v>8352.07</v>
-      </c>
-      <c r="K43">
-        <v>8452.2800000000007</v>
-      </c>
-      <c r="L43">
-        <v>8637.9500000000007</v>
-      </c>
-      <c r="M43">
-        <v>7758.26</v>
-      </c>
-      <c r="N43">
-        <v>7897.2</v>
-      </c>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>6549.14</v>
-      </c>
-      <c r="C44">
-        <v>8220.93</v>
-      </c>
-      <c r="D44">
-        <v>8519.74</v>
-      </c>
-      <c r="E44">
-        <v>8132.08</v>
-      </c>
-      <c r="F44">
-        <v>8356.5300000000007</v>
-      </c>
-      <c r="G44">
-        <v>6604.14</v>
-      </c>
-      <c r="H44">
-        <v>6627.65</v>
-      </c>
-      <c r="I44">
-        <v>6549.14</v>
-      </c>
-      <c r="J44">
-        <v>6577.59</v>
-      </c>
-      <c r="K44">
-        <v>6549.14</v>
-      </c>
-      <c r="L44">
-        <v>6623.91</v>
-      </c>
-      <c r="M44">
-        <v>6528.86</v>
-      </c>
-      <c r="N44">
-        <v>6528.86</v>
-      </c>
-      <c r="O44" s="4"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FF1F65-113B-42CB-A2E9-E6BCF0A7A42E}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF052698-AE4B-4A52-A1BC-BC5F61C91264}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:R36"/>
     </sheetView>
   </sheetViews>
@@ -2796,93 +2260,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="9"/>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2934,10 +2398,10 @@
       <c r="P3">
         <v>159.99</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="1">
         <v>159.57</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="1">
         <v>159.57</v>
       </c>
     </row>
@@ -2990,10 +2454,10 @@
       <c r="P4">
         <v>118.13</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="1">
         <v>118.54</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="1">
         <v>118.94</v>
       </c>
     </row>
@@ -3046,10 +2510,10 @@
       <c r="P5">
         <v>112.07</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="1">
         <v>112.07</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="1">
         <v>112.07</v>
       </c>
     </row>
@@ -3079,16 +2543,16 @@
         <v>8571</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>8509</v>
@@ -3102,10 +2566,10 @@
       <c r="P6">
         <v>8578.51</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="1">
         <v>8509.16</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="1">
         <v>8509.16</v>
       </c>
     </row>
@@ -3135,16 +2599,16 @@
         <v>6835</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <v>6766</v>
@@ -3158,10 +2622,10 @@
       <c r="P7">
         <v>6774.24</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="1">
         <v>6824.65</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="1">
         <v>6824.65</v>
       </c>
     </row>
@@ -3191,16 +2655,16 @@
         <v>6358</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>6358</v>
@@ -3214,10 +2678,10 @@
       <c r="P8">
         <v>6358.49</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="1">
         <v>6358.49</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="1">
         <v>6358.49</v>
       </c>
     </row>
@@ -3247,16 +2711,16 @@
         <v>6358</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>6358</v>
@@ -3270,16 +2734,16 @@
       <c r="P9">
         <v>6358.49</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="1">
         <v>6358.49</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="1">
         <v>6358.49</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>13151</v>
@@ -3303,16 +2767,16 @@
         <v>13628</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>13151</v>
@@ -3326,16 +2790,16 @@
       <c r="P10">
         <v>13352.37</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="1">
         <v>13131.64</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="1">
         <v>13194.86</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>8466</v>
@@ -3359,16 +2823,16 @@
         <v>8601</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <v>8466</v>
@@ -3382,16 +2846,16 @@
       <c r="P11">
         <v>8602.15</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="1">
         <v>8553.66</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="1">
         <v>8649.7099999999991</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>5557</v>
@@ -3415,16 +2879,16 @@
         <v>5736</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <v>5557</v>
@@ -3438,16 +2902,16 @@
       <c r="P12">
         <v>5668.59</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="1">
         <v>5600.32</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="1">
         <v>5791.18</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5246</v>
@@ -3471,16 +2935,16 @@
         <v>5246</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>5246</v>
@@ -3494,16 +2958,16 @@
       <c r="P13">
         <v>5246.49</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="1">
         <v>5246.49</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="1">
         <v>5246.49</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>5246</v>
@@ -3527,16 +2991,16 @@
         <v>5246</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>5246</v>
@@ -3550,16 +3014,16 @@
       <c r="P14">
         <v>5246.49</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="1">
         <v>5246.49</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="1">
         <v>5246.49</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2407.59</v>
@@ -3577,10 +3041,10 @@
         <v>2439</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>2413.2399999999998</v>
@@ -3606,16 +3070,16 @@
       <c r="P15">
         <v>2449.65</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="1">
         <v>2419.8200000000002</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="1">
         <v>2432.09</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1741.61</v>
@@ -3633,10 +3097,10 @@
         <v>1742</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>1752.11</v>
@@ -3662,16 +3126,16 @@
       <c r="P16">
         <v>1755.13</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="1">
         <v>1744.26</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="1">
         <v>1760.47</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1554</v>
@@ -3689,10 +3153,10 @@
         <v>1554</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>1554.64</v>
@@ -3727,7 +3191,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1554</v>
@@ -3745,10 +3209,10 @@
         <v>1554</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>1554.64</v>
@@ -3783,7 +3247,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1554</v>
@@ -3801,22 +3265,22 @@
         <v>1554</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>1554.64</v>
@@ -3839,28 +3303,28 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>10768.1</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20">
         <v>10814.18</v>
@@ -3895,28 +3359,28 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>7415.54</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <v>7493.24</v>
@@ -3951,28 +3415,28 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>6223.22</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>6237</v>
@@ -4007,28 +3471,28 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>6223.22</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23">
         <v>6223.22</v>
@@ -4063,28 +3527,28 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>16088.73</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <v>16200.21</v>
@@ -4119,28 +3583,28 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>11524.29</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <v>11730.03</v>
@@ -4175,28 +3639,28 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>9731.17</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>9845.7199999999993</v>
@@ -4231,28 +3695,28 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>9731.17</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27">
         <v>9731.17</v>
@@ -4287,28 +3751,28 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>3272.95</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28">
         <v>3457.97</v>
@@ -4343,28 +3807,28 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2092.77</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <v>2273.8000000000002</v>
@@ -4399,28 +3863,28 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1360.89</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>1542.05</v>
@@ -4455,28 +3919,28 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1231.69</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>1311.3</v>
@@ -4511,28 +3975,28 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>22252.31</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32">
         <v>24008.47</v>
@@ -4567,28 +4031,28 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>14099.5</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <v>16057.19</v>
@@ -4623,28 +4087,28 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>8160.25</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <v>10517.94</v>
@@ -4679,28 +4143,28 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>6549.14</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35">
         <v>8063.17</v>
@@ -4735,34 +4199,29 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <f>AVERAGE(B3:B35)</f>
         <v>6411.5890909090931</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:R36" si="0">AVERAGE(M3:M35)</f>
+        <f>AVERAGE(M3:M35)</f>
         <v>6439.019696969699</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
         <v>6518.3636363636379</v>
       </c>
       <c r="O36">
-        <f t="shared" si="0"/>
         <v>6365.5209090909093</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
         <v>6456.9451515151532</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
         <v>6414.9296969696989</v>
       </c>
       <c r="R36">
-        <f t="shared" si="0"/>
         <v>6482.1293939393936</v>
       </c>
     </row>
@@ -4780,4 +4239,821 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B17D4E5-47B4-4CA9-B86D-6494092120A7}">
+  <dimension ref="A2:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>187.46</v>
+      </c>
+      <c r="F4">
+        <v>1.95</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>249.31</v>
+      </c>
+      <c r="I4">
+        <v>1.91</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>2.04</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3.24</v>
+      </c>
+      <c r="F5">
+        <v>1.96</v>
+      </c>
+      <c r="G5">
+        <v>0.51</v>
+      </c>
+      <c r="H5">
+        <v>3.75</v>
+      </c>
+      <c r="I5">
+        <v>1.91</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>2.29</v>
+      </c>
+      <c r="D6">
+        <v>14.5</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6">
+        <v>2.11</v>
+      </c>
+      <c r="G6">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="H6">
+        <v>0.26</v>
+      </c>
+      <c r="I6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J6">
+        <v>6.28</v>
+      </c>
+      <c r="K6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>2.17</v>
+      </c>
+      <c r="D7">
+        <v>8.5</v>
+      </c>
+      <c r="E7">
+        <v>1.6</v>
+      </c>
+      <c r="F7">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G7">
+        <v>6.15</v>
+      </c>
+      <c r="H7">
+        <v>1.67</v>
+      </c>
+      <c r="I7">
+        <v>1.98</v>
+      </c>
+      <c r="J7">
+        <v>3.66</v>
+      </c>
+      <c r="K7">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>2.02</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2.25</v>
+      </c>
+      <c r="F8">
+        <v>1.96</v>
+      </c>
+      <c r="G8">
+        <v>0.51</v>
+      </c>
+      <c r="H8">
+        <v>2.44</v>
+      </c>
+      <c r="I8">
+        <v>1.91</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>2.02</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2.48</v>
+      </c>
+      <c r="F9">
+        <v>1.96</v>
+      </c>
+      <c r="G9">
+        <v>0.51</v>
+      </c>
+      <c r="H9">
+        <v>2.5</v>
+      </c>
+      <c r="I9">
+        <v>1.91</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>262.85000000000002</v>
+      </c>
+      <c r="F14">
+        <v>1.97</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>474.78</v>
+      </c>
+      <c r="I14">
+        <v>1.98</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>378.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>2.41</v>
+      </c>
+      <c r="D15">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E15">
+        <v>35.47</v>
+      </c>
+      <c r="F15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G15">
+        <v>3.05</v>
+      </c>
+      <c r="H15">
+        <v>45.4</v>
+      </c>
+      <c r="I15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J15">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K15">
+        <v>48.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>2.72</v>
+      </c>
+      <c r="D16">
+        <v>23.64</v>
+      </c>
+      <c r="E16">
+        <v>0.43</v>
+      </c>
+      <c r="F16">
+        <v>2.17</v>
+      </c>
+      <c r="G16">
+        <v>10.15</v>
+      </c>
+      <c r="H16">
+        <v>0.48</v>
+      </c>
+      <c r="I16">
+        <v>2.09</v>
+      </c>
+      <c r="J16">
+        <v>5.56</v>
+      </c>
+      <c r="K16">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>2.59</v>
+      </c>
+      <c r="D17">
+        <v>17.73</v>
+      </c>
+      <c r="E17">
+        <v>14.84</v>
+      </c>
+      <c r="F17">
+        <v>2.13</v>
+      </c>
+      <c r="G17">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H17">
+        <v>16.22</v>
+      </c>
+      <c r="I17">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J17">
+        <v>4.55</v>
+      </c>
+      <c r="K17">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>2.25</v>
+      </c>
+      <c r="D18">
+        <v>2.27</v>
+      </c>
+      <c r="E18">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F18">
+        <v>1.98</v>
+      </c>
+      <c r="G18">
+        <v>0.51</v>
+      </c>
+      <c r="H18">
+        <v>12.22</v>
+      </c>
+      <c r="I18">
+        <v>1.98</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>24.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D19">
+        <v>1.82</v>
+      </c>
+      <c r="E19">
+        <v>16.36</v>
+      </c>
+      <c r="F19">
+        <v>1.97</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>1.98</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>20</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>2.04</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1224.4000000000001</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1147.1300000000001</v>
+      </c>
+      <c r="I24">
+        <v>1.97</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>908.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>2.33</v>
+      </c>
+      <c r="D25">
+        <v>14.22</v>
+      </c>
+      <c r="E25">
+        <v>675.79</v>
+      </c>
+      <c r="F25">
+        <v>2.33</v>
+      </c>
+      <c r="G25">
+        <v>16.5</v>
+      </c>
+      <c r="H25">
+        <v>604.30999999999995</v>
+      </c>
+      <c r="I25">
+        <v>2.37</v>
+      </c>
+      <c r="J25">
+        <v>20.3</v>
+      </c>
+      <c r="K25">
+        <v>649.16999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>2.4</v>
+      </c>
+      <c r="D26">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.93</v>
+      </c>
+      <c r="F26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0.98</v>
+      </c>
+      <c r="I26">
+        <v>2.15</v>
+      </c>
+      <c r="J26">
+        <v>9.14</v>
+      </c>
+      <c r="K26">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D27">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E27">
+        <v>193.41</v>
+      </c>
+      <c r="F27">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>213.07</v>
+      </c>
+      <c r="I27">
+        <v>2.17</v>
+      </c>
+      <c r="J27">
+        <v>10.15</v>
+      </c>
+      <c r="K27">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>2.06</v>
+      </c>
+      <c r="D28">
+        <v>0.98</v>
+      </c>
+      <c r="E28">
+        <v>83.82</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="I28">
+        <v>2.02</v>
+      </c>
+      <c r="J28">
+        <v>2.54</v>
+      </c>
+      <c r="K28">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>2.06</v>
+      </c>
+      <c r="D29">
+        <v>0.98</v>
+      </c>
+      <c r="E29">
+        <v>84.96</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>84.28</v>
+      </c>
+      <c r="I29">
+        <v>2.02</v>
+      </c>
+      <c r="J29">
+        <v>2.54</v>
+      </c>
+      <c r="K29">
+        <v>108.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/He_Results.xlsx
+++ b/He_Results.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>mtsp51–3</t>
   </si>
@@ -601,7 +601,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -680,16 +680,16 @@
         <v>118.13375254600861</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M33" si="0">MIN(B2:K2)</f>
+        <f>MIN(B2:K2)</f>
         <v>118.13375254600859</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N33" si="1">AVERAGE(B2:K2)</f>
+        <f>AVERAGE(B2:K2)</f>
         <v>118.21432541264792</v>
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -724,16 +724,14 @@
         <v>112.07140580897496</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
         <v>112.0714058089749</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" si="1"/>
         <v>112.07140580897502</v>
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -768,16 +766,14 @@
         <v>8509.1624832976941</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
         <v>8509.1624832976941</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="1"/>
         <v>8509.1624832976959</v>
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -812,16 +808,14 @@
         <v>6772.7138095653991</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
         <v>6767.0167084399909</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="1"/>
         <v>6773.1000771819508</v>
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -856,16 +850,14 @@
         <v>6358.485983313949</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
         <v>6358.4859833139417</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="1"/>
         <v>6358.4859833139471</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -900,16 +892,14 @@
         <v>6358.4859833139499</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
         <v>6358.485983313949</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="1"/>
         <v>6358.4859833139499</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -944,16 +934,14 @@
         <v>13132.051848245297</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
         <v>13101.567688654211</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="1"/>
         <v>13165.396406416452</v>
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -988,16 +976,14 @@
         <v>8782.3063980627066</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
         <v>8498.9409745886733</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="1"/>
         <v>8643.3039674524134</v>
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1032,16 +1018,14 @@
         <v>5700.1426219046698</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
         <v>5595.9398030635693</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="1"/>
         <v>5676.0452739936172</v>
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1076,16 +1060,14 @@
         <v>5246.4940674701975</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
         <v>5246.4940674701893</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="1"/>
         <v>5246.4940674701966</v>
       </c>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1120,16 +1102,14 @@
         <v>5246.4940674701975</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
         <v>5246.4940674701884</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="1"/>
         <v>5246.4940674701938</v>
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1164,16 +1144,14 @@
         <v>2416.8271697250311</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
         <v>2407.3354266968472</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="1"/>
         <v>2423.541541333826</v>
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1208,16 +1186,14 @@
         <v>1744.2595330937449</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
         <v>1742.9774658726471</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="1"/>
         <v>1752.2190502688154</v>
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1252,16 +1228,14 @@
         <v>1554.6364153558998</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
         <v>1554.6364153558973</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="1"/>
         <v>1554.9666116858468</v>
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1296,16 +1270,14 @@
         <v>1554.6364153559</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
         <v>1554.6364153558952</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="1"/>
         <v>1554.6364153558989</v>
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1340,16 +1312,14 @@
         <v>1554.6364153559</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
         <v>1554.6364153558993</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="1"/>
         <v>1554.6364153559002</v>
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1384,16 +1354,14 @@
         <v>10901.891976969093</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
         <v>10779.100847003736</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="1"/>
         <v>10884.315043094521</v>
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1428,16 +1396,14 @@
         <v>7453.9245889524836</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
         <v>7453.9245889524836</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="1"/>
         <v>7682.7522721485802</v>
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1472,16 +1438,14 @@
         <v>6223.2162102886914</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
         <v>6223.2162102886914</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="1"/>
         <v>6240.4717424025903</v>
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1516,16 +1480,14 @@
         <v>6223.2162102886923</v>
       </c>
       <c r="M21">
-        <f t="shared" si="0"/>
         <v>6223.216210288685</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="1"/>
         <v>6223.2162102886914</v>
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1560,16 +1522,14 @@
         <v>16117.275880138859</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
         <v>15887.081238018378</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="1"/>
         <v>16072.599742296608</v>
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1604,16 +1564,14 @@
         <v>11712.752578075026</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
         <v>11529.811202775212</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="1"/>
         <v>11888.626706288942</v>
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1648,16 +1606,14 @@
         <v>9731.1660144095731</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
         <v>9731.1660144095731</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="1"/>
         <v>9748.8958379805317</v>
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1692,16 +1648,14 @@
         <v>9731.1660144095749</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
         <v>9731.1660144095731</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="1"/>
         <v>9731.1660144095749</v>
       </c>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1736,16 +1690,14 @@
         <v>3231.0583869240286</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
         <v>3139.6832074354911</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="1"/>
         <v>3189.668423252574</v>
       </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1780,16 +1732,14 @@
         <v>2068.5262398088585</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
         <v>2055.6121129155267</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="1"/>
         <v>2087.3110753110404</v>
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1824,16 +1774,14 @@
         <v>1388.0326668498501</v>
       </c>
       <c r="M28">
-        <f t="shared" si="0"/>
         <v>1337.2418692061353</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="1"/>
         <v>1382.8864790832329</v>
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1868,16 +1816,14 @@
         <v>1240.9421680286632</v>
       </c>
       <c r="M29">
-        <f t="shared" si="0"/>
         <v>1240.942168028663</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="1"/>
         <v>1245.9177616093707</v>
       </c>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1912,16 +1858,14 @@
         <v>20383.771625420417</v>
       </c>
       <c r="M30">
-        <f t="shared" si="0"/>
         <v>20148.381286439293</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="1"/>
         <v>20355.692815643753</v>
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1956,16 +1900,14 @@
         <v>13025.738595093491</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
         <v>12906.068357598033</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="1"/>
         <v>13284.859043546739</v>
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2000,16 +1942,14 @@
         <v>8265.2282275473572</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
         <v>8081.145319993424</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="1"/>
         <v>8246.5674536359256</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2044,16 +1984,14 @@
         <v>6676.1497455320759</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
         <v>6623.6964953205434</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="1"/>
         <v>6658.546365262222</v>
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
@@ -2065,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FF1F65-113B-42CB-A2E9-E6BCF0A7A42E}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -2076,167 +2014,272 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>32490.247825091996</v>
+      </c>
+      <c r="C1">
+        <v>32492.0019139204</v>
+      </c>
+      <c r="D1">
+        <v>32241.427404930026</v>
+      </c>
+      <c r="E1">
+        <v>31861.135698367303</v>
+      </c>
+      <c r="F1">
+        <v>32408.91148541211</v>
+      </c>
+      <c r="G1">
+        <v>32128.5368202893</v>
+      </c>
+      <c r="H1">
+        <v>32159.040418617766</v>
+      </c>
+      <c r="I1">
+        <v>32301.914600496304</v>
+      </c>
+      <c r="J1">
+        <v>32233.489252084433</v>
+      </c>
+      <c r="K1">
+        <v>31904.093961514453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>22553.26697816913</v>
+      </c>
+      <c r="C2">
+        <v>22348.100642813442</v>
+      </c>
+      <c r="D2">
+        <v>22258.888471749706</v>
+      </c>
+      <c r="E2">
+        <v>22422.46081746059</v>
+      </c>
+      <c r="F2">
+        <v>22924.28724718475</v>
+      </c>
+      <c r="G2">
+        <v>22348.923042817096</v>
+      </c>
+      <c r="H2">
+        <v>22438.35961482514</v>
+      </c>
+      <c r="I2">
+        <v>22597.823190763404</v>
+      </c>
+      <c r="J2">
+        <v>22463.47082258998</v>
+      </c>
+      <c r="K2">
+        <v>22750.10074354225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>18084.20974258924</v>
+      </c>
+      <c r="C3">
+        <v>18042.64141857721</v>
+      </c>
+      <c r="D3">
+        <v>18225.503242339346</v>
+      </c>
+      <c r="E3">
+        <v>18315.2102013747</v>
+      </c>
+      <c r="F3">
+        <v>18225.50324233935</v>
+      </c>
+      <c r="G3">
+        <v>18134.367099993862</v>
+      </c>
+      <c r="H3">
+        <v>18240.166098427573</v>
+      </c>
+      <c r="I3">
+        <v>18042.64141857721</v>
+      </c>
+      <c r="J3">
+        <v>18089.141243861657</v>
+      </c>
+      <c r="K3">
+        <v>18092.442925177682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>17641.16379380906</v>
+      </c>
+      <c r="C4">
+        <v>17641.163793809064</v>
+      </c>
+      <c r="D4">
+        <v>17641.16379380906</v>
+      </c>
+      <c r="E4">
+        <v>17641.163793809064</v>
+      </c>
+      <c r="F4">
+        <v>17641.16379380906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2259,41 +2302,41 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:18">
+      <c r="C1" t="s" s="4">
         <v>38</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s" s="4">
         <v>39</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s" s="4">
         <v>40</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s" s="4">
         <v>41</v>
       </c>
       <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s" s="4">
         <v>42</v>
       </c>
       <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s" s="4">
         <v>43</v>
       </c>
       <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s" s="4">
         <v>44</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s" s="4">
         <v>45</v>
       </c>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +2392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2448,7 @@
         <v>159.57</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2461,7 +2504,7 @@
         <v>118.94</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2517,7 +2560,7 @@
         <v>112.07</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +2616,7 @@
         <v>8509.16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2629,7 +2672,7 @@
         <v>6824.65</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2728,7 @@
         <v>6358.49</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2741,7 +2784,7 @@
         <v>6358.49</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2797,7 +2840,7 @@
         <v>13194.86</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2853,7 +2896,7 @@
         <v>8649.7099999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2909,7 +2952,7 @@
         <v>5791.18</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +3008,7 @@
         <v>5246.49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3064,7 @@
         <v>5246.49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3077,7 +3120,7 @@
         <v>2432.09</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3176,7 @@
         <v>1760.47</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3189,7 +3232,7 @@
         <v>1555.02</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3245,7 +3288,7 @@
         <v>1554.64</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3301,7 +3344,7 @@
         <v>1554.64</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3357,7 +3400,7 @@
         <v>10923.78</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3413,7 +3456,7 @@
         <v>7609.48</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3469,7 +3512,7 @@
         <v>6246.79</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3525,7 +3568,7 @@
         <v>6223.22</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3581,7 +3624,7 @@
         <v>16184.43</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3637,7 +3680,7 @@
         <v>11848.73</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3693,7 +3736,7 @@
         <v>9824.3799999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3749,7 +3792,7 @@
         <v>9731.17</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3805,7 +3848,7 @@
         <v>3298.55</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3861,7 +3904,7 @@
         <v>2226.65</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3917,7 +3960,7 @@
         <v>1541.82</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3973,7 +4016,7 @@
         <v>1270.29</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4029,7 +4072,7 @@
         <v>21532.94</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4085,7 +4128,7 @@
         <v>14214.44</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4141,7 +4184,7 @@
         <v>8971.24</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4197,7 +4240,7 @@
         <v>6835.4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -4254,7 +4297,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>55</v>
       </c>
@@ -4274,7 +4317,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -4309,7 +4352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>50</v>
       </c>
@@ -4344,7 +4387,7 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>49</v>
@@ -4377,7 +4420,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>50</v>
@@ -4410,7 +4453,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>51</v>
@@ -4443,7 +4486,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>52</v>
@@ -4476,7 +4519,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>53</v>
@@ -4509,19 +4552,19 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -4541,7 +4584,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -4573,7 +4616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>100</v>
       </c>
@@ -4608,7 +4651,7 @@
         <v>378.9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>49</v>
@@ -4641,7 +4684,7 @@
         <v>48.86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>50</v>
@@ -4674,7 +4717,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>51</v>
@@ -4707,7 +4750,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>52</v>
@@ -4740,7 +4783,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>53</v>
@@ -4773,19 +4816,19 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>55</v>
@@ -4806,7 +4849,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>54</v>
       </c>
@@ -4838,7 +4881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>200</v>
       </c>
@@ -4873,7 +4916,7 @@
         <v>908.14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>49</v>
@@ -4906,7 +4949,7 @@
         <v>649.16999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>50</v>
@@ -4939,7 +4982,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>51</v>
@@ -4972,7 +5015,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>52</v>
@@ -5005,7 +5048,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>53</v>
